--- a/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7644172986711041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9341053208142427</v>
+        <v>0.9341053208142429</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7287003109895677</v>
@@ -697,7 +697,7 @@
         <v>0.7810482201429442</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.941590456179356</v>
+        <v>0.9415904561793558</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6128578520060749</v>
+        <v>0.6109219546951047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6985212987862923</v>
+        <v>0.7022449203452357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7327485689101217</v>
+        <v>0.7296730685991369</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9140036794788362</v>
+        <v>0.909788029863871</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7005683090196301</v>
+        <v>0.7039758630886301</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.782547831149504</v>
+        <v>0.7832633920600868</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7656910221930483</v>
+        <v>0.7657217255332729</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9321757680706811</v>
+        <v>0.9337536915255701</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6709475928102785</v>
+        <v>0.672148074608222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7562767878846286</v>
+        <v>0.7565371888155464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7610059406870007</v>
+        <v>0.7597465864393309</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9293516356426234</v>
+        <v>0.9278960551710207</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6720734062189413</v>
+        <v>0.6716464365746635</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7568580314400432</v>
+        <v>0.7568643755432886</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7934860620795329</v>
+        <v>0.7919242114290962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9526097516432278</v>
+        <v>0.9528591104670344</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7512129014953887</v>
+        <v>0.7506179653828237</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8273782457580399</v>
+        <v>0.8282088040538863</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8200037944935418</v>
+        <v>0.8167272099828236</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9571280708207762</v>
+        <v>0.9573895642004761</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7092104170601325</v>
+        <v>0.7086299720606333</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7906404477833512</v>
+        <v>0.7920317962128786</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8017517027105305</v>
+        <v>0.8008499065929547</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9515017870688871</v>
+        <v>0.9522684874817947</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.7509292267023018</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9588241717839899</v>
+        <v>0.9588241717839897</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6553874344287488</v>
@@ -833,7 +833,7 @@
         <v>0.7209736361753482</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9485535862637352</v>
+        <v>0.9485535862637354</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5924059797250611</v>
+        <v>0.5946464066874739</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6717201145130141</v>
+        <v>0.6717843903881676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6699955829782133</v>
+        <v>0.6707897947190117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9257823981087945</v>
+        <v>0.9243606491190743</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6728529642359512</v>
+        <v>0.6725333798156946</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7502857880365106</v>
+        <v>0.7525194409065209</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7317401412952139</v>
+        <v>0.7316682235047162</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9489827825108401</v>
+        <v>0.9494168508225546</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6386502675231337</v>
+        <v>0.6393468384273192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7148971868218343</v>
+        <v>0.7151201331390913</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7067532032338656</v>
+        <v>0.7062922353236296</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9401552337735198</v>
+        <v>0.9404676729200886</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6402244409818686</v>
+        <v>0.6408064547768219</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7115696682513594</v>
+        <v>0.714474763966348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7146375190366807</v>
+        <v>0.7125680574885189</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9503608842699498</v>
+        <v>0.9495593082607293</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7183448674635081</v>
+        <v>0.7181505100667764</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7926046870622974</v>
+        <v>0.7932431449366494</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7729345825796853</v>
+        <v>0.768824038933041</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9670523399163222</v>
+        <v>0.9663483550220446</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6728821521636302</v>
+        <v>0.6714606761880346</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.745137471679996</v>
+        <v>0.74492649141527</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7350554581384686</v>
+        <v>0.7336038783022756</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9556911019316258</v>
+        <v>0.9557987732745763</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7831144438178589</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9674125733578696</v>
+        <v>0.9674125733578695</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7089399755802532</v>
@@ -969,7 +969,7 @@
         <v>0.8010735619139954</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9669384575765574</v>
+        <v>0.9669384575765573</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.619465792978252</v>
+        <v>0.6177830593326072</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7041937217121278</v>
+        <v>0.7093562525683677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7452686806311545</v>
+        <v>0.7415218554278896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9499464139401944</v>
+        <v>0.9485676287455551</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6665864207140145</v>
+        <v>0.6664799198731555</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.812306775553449</v>
+        <v>0.8125561019562131</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7854137020020374</v>
+        <v>0.7853755358682627</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9512963770014389</v>
+        <v>0.9488921062390338</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6559351689662335</v>
+        <v>0.6514332554066492</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7700044774985926</v>
+        <v>0.771825707888347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7755402804845748</v>
+        <v>0.7746206408759728</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9560747899304018</v>
+        <v>0.9552791631125158</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6997115637503022</v>
+        <v>0.699959117166769</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7937392246902264</v>
+        <v>0.7936414904722437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8221711656098571</v>
+        <v>0.8190261778604345</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9786652838400978</v>
+        <v>0.9797452791978186</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.751871843059655</v>
+        <v>0.7520594833744433</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8818663173544397</v>
+        <v>0.8814468628702805</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8510576424675401</v>
+        <v>0.8513698828858143</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9781771902201667</v>
+        <v>0.9781534218060304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.713551577272347</v>
+        <v>0.7127555882483186</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8277077570158691</v>
+        <v>0.8267177066891722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.825601904643773</v>
+        <v>0.8241935813699086</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9757026172829396</v>
+        <v>0.9758367307270421</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.7489207188231645</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9508819590420229</v>
+        <v>0.950881959042023</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6959965671641595</v>
+        <v>0.6956531618781037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.708677741372806</v>
+        <v>0.706873627309224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9346367725223635</v>
+        <v>0.9343219034860605</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7815522053859296</v>
+        <v>0.7817474735117256</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7579761356757277</v>
+        <v>0.7586384714237971</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.950485059312987</v>
+        <v>0.9506343028303242</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7440906765241189</v>
+        <v>0.7444378114090862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7380451480296083</v>
+        <v>0.7387258460124837</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9451777933068493</v>
+        <v>0.9452405242462084</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7282906440671963</v>
+        <v>0.7279650707085236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7398964472697714</v>
+        <v>0.7379143432173647</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9528339733218972</v>
+        <v>0.9519346459788153</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8089183543842843</v>
+        <v>0.8107251781958883</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.786779170209251</v>
+        <v>0.7864441328003746</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9633596664315844</v>
+        <v>0.963473176625734</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7652390800354339</v>
+        <v>0.7648325452342095</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7588214804471535</v>
+        <v>0.7602338552361845</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9562766273827367</v>
+        <v>0.9562839376187438</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>631788</v>
+        <v>629793</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>677922</v>
+        <v>681536</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>551311</v>
+        <v>548997</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>528076</v>
+        <v>525640</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>921326</v>
+        <v>925808</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1046890</v>
+        <v>1047847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>758180</v>
+        <v>758211</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>764364</v>
+        <v>765657</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1574044</v>
+        <v>1576860</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1745718</v>
+        <v>1746319</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1326113</v>
+        <v>1323918</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1298991</v>
+        <v>1296957</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>692833</v>
+        <v>692393</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>734538</v>
+        <v>734544</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>597009</v>
+        <v>595834</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>550381</v>
+        <v>550525</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>987930</v>
+        <v>987147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1106864</v>
+        <v>1107975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>811960</v>
+        <v>808716</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>784824</v>
+        <v>785038</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1663808</v>
+        <v>1662447</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1825040</v>
+        <v>1828252</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1397116</v>
+        <v>1395544</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1329951</v>
+        <v>1331023</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1003188</v>
+        <v>1006982</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1317856</v>
+        <v>1317983</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1382318</v>
+        <v>1383957</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2062421</v>
+        <v>2059254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1067557</v>
+        <v>1067050</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1312930</v>
+        <v>1316838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1447364</v>
+        <v>1447221</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2058654</v>
+        <v>2059596</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2094789</v>
+        <v>2097074</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2653569</v>
+        <v>2654396</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2856096</v>
+        <v>2854233</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4133944</v>
+        <v>4135318</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1084164</v>
+        <v>1085150</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1396038</v>
+        <v>1401737</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1474422</v>
+        <v>1470153</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>2117176</v>
+        <v>2115390</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1139735</v>
+        <v>1139427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1386984</v>
+        <v>1388101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1528845</v>
+        <v>1520715</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2097853</v>
+        <v>2096326</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2207071</v>
+        <v>2202408</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2765815</v>
+        <v>2765032</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2970469</v>
+        <v>2964603</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>4202257</v>
+        <v>4202730</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>341578</v>
+        <v>340651</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>338120</v>
+        <v>340599</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>406079</v>
+        <v>404037</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>675970</v>
+        <v>674988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>317570</v>
+        <v>317519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>370977</v>
+        <v>371091</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>429760</v>
+        <v>429739</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>699086</v>
+        <v>697319</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>674183</v>
+        <v>669556</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>721377</v>
+        <v>723083</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>846930</v>
+        <v>845926</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1382928</v>
+        <v>1381777</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>385827</v>
+        <v>385963</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>381115</v>
+        <v>381069</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>447981</v>
+        <v>446268</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>696405</v>
+        <v>697174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>358201</v>
+        <v>358290</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>402745</v>
+        <v>402553</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>465678</v>
+        <v>465849</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>718840</v>
+        <v>718822</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>733403</v>
+        <v>732584</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>775436</v>
+        <v>774509</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>901600</v>
+        <v>900062</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1411319</v>
+        <v>1411513</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2375140</v>
+        <v>2373968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2381468</v>
+        <v>2375406</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3287218</v>
+        <v>3286110</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2770132</v>
+        <v>2770824</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2664546</v>
+        <v>2666874</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3539780</v>
+        <v>3540336</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5176619</v>
+        <v>5179034</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5074638</v>
+        <v>5079318</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6844307</v>
+        <v>6844761</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2485346</v>
+        <v>2484235</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2486377</v>
+        <v>2479716</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3351219</v>
+        <v>3348056</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2867129</v>
+        <v>2873533</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2765799</v>
+        <v>2764621</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3587728</v>
+        <v>3588150</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5323748</v>
+        <v>5320919</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5217491</v>
+        <v>5227202</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>6924676</v>
+        <v>6924729</v>
       </c>
     </row>
     <row r="20">
